--- a/target/classes/Conducteur01.xlsx
+++ b/target/classes/Conducteur01.xlsx
@@ -1,64 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille 1" sheetId="1" r:id="rId4"/>
-    <sheet name="Feuille 2" sheetId="2" r:id="rId5"/>
+    <sheet name="employe db" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>Tableau 1</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Prenom</t>
-  </si>
-  <si>
-    <t>Licence</t>
-  </si>
-  <si>
-    <t>Numero Plaque immatriculation</t>
-  </si>
-  <si>
-    <t>Dupont</t>
-  </si>
-  <si>
-    <t>Thierry</t>
-  </si>
-  <si>
-    <t>356YH28</t>
-  </si>
-  <si>
-    <t>Dupond</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>287TT39</t>
-  </si>
-  <si>
-    <t>Cast</t>
-  </si>
-  <si>
-    <t>Afiore</t>
-  </si>
-  <si>
-    <t>Ping</t>
-  </si>
-  <si>
-    <t>Yang</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -66,13 +19,25 @@
     <t>country</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Italie</t>
+    <t>year</t>
   </si>
   <si>
     <t>France</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>Belgique</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>1972</t>
   </si>
 </sst>
 </file>
@@ -82,11 +47,11 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -94,44 +59,20 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="14"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,233 +82,40 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,21 +134,16 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Blank">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -414,22 +157,22 @@
         <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="00A2FF"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="16E7CF"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="61D836"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FAE232"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF644E"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="EF5FA7"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -438,7 +181,7 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Blank">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Helvetica Neue"/>
         <a:ea typeface="Helvetica Neue"/>
@@ -450,7 +193,7 @@
         <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Blank">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -529,7 +272,13 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -600,7 +349,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -628,10 +377,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -886,7 +635,13 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1171,7 +926,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1199,10 +954,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1453,401 +1208,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="C2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="D2" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D3" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E3" s="2"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="D4" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="C3" s="9">
-        <v>983250398</v>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4">
+        <v>3</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="C5" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="12">
+      <c r="D5" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="B4" t="s" s="13">
-        <v>9</v>
-      </c>
-      <c r="C4" s="14">
-        <v>650239475</v>
-      </c>
-      <c r="D4" t="s" s="15">
-        <v>10</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="C5" s="14">
-        <v>847302934</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s" s="13">
-        <v>14</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="16.3516" style="19" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="19" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="19" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="19" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.6" customHeight="1">
-      <c r="A1" t="s" s="20">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s" s="23">
-        <v>17</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="25">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2009</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" ht="14.05" customHeight="1">
-      <c r="A4" s="26">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s" s="13">
-        <v>19</v>
-      </c>
-      <c r="C4" s="14">
-        <v>2016</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" ht="14.05" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" ht="14.05" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" ht="14.05" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" ht="14.05" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" ht="14.05" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" ht="14.05" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
